--- a/_doc/测试excel输出.xlsx
+++ b/_doc/测试excel输出.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
+    <t>作者</t>
+  </si>
+  <si>
     <t>出版日期</t>
   </si>
   <si>
@@ -37,9 +40,6 @@
     <t>书名</t>
   </si>
   <si>
-    <t>作者</t>
-  </si>
-  <si>
     <t>9787115375698</t>
   </si>
   <si>
@@ -49,7 +49,7 @@
     <t>神龙工作室 编著</t>
   </si>
   <si>
-    <t>2022-10-14 19:16:13</t>
+    <t>2022-10-15 12:34:44</t>
   </si>
   <si>
     <t>专科</t>
@@ -394,28 +394,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/_doc/测试excel输出.xlsx
+++ b/_doc/测试excel输出.xlsx
@@ -16,6 +16,21 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
+    <t>适用对象</t>
+  </si>
+  <si>
+    <t>图书类目</t>
+  </si>
+  <si>
+    <t>细分类目</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>书名</t>
+  </si>
+  <si>
     <t>作者</t>
   </si>
   <si>
@@ -25,21 +40,6 @@
     <t>定价</t>
   </si>
   <si>
-    <t>适用对象</t>
-  </si>
-  <si>
-    <t>图书类目</t>
-  </si>
-  <si>
-    <t>细分类目</t>
-  </si>
-  <si>
-    <t>ISBN</t>
-  </si>
-  <si>
-    <t>书名</t>
-  </si>
-  <si>
     <t>9787115375698</t>
   </si>
   <si>
@@ -49,7 +49,7 @@
     <t>神龙工作室 编著</t>
   </si>
   <si>
-    <t>2022-10-15 12:34:44</t>
+    <t>2022-11-03</t>
   </si>
   <si>
     <t>专科</t>
@@ -70,7 +70,7 @@
     <t>金桥  周奎奎</t>
   </si>
   <si>
-    <t>2021-12-01 00:00:00</t>
+    <t>2021-12-01</t>
   </si>
   <si>
     <t>9787115512819</t>
@@ -394,28 +394,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
